--- a/generating_code/amitt_metadata_v3.xlsx
+++ b/generating_code/amitt_metadata_v3.xlsx
@@ -2722,7 +2722,7 @@
     <t>I00120</t>
   </si>
   <si>
-    <t>technique</t>
+    <t>techniques</t>
   </si>
   <si>
     <t>I00002T001</t>
